--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/SMR-monitoring/MRNE395-2024FA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90BFAA4B-A72A-B745-8506-3982B1E8B90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBD75B-1CA3-C045-B9F9-07AEB25A5B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37820" yWindow="500" windowWidth="28040" windowHeight="18660" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="34600" yWindow="2260" windowWidth="28040" windowHeight="18660" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,124 +20,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Final exam Thursday 12/12 9:00-11:15</t>
-  </si>
-  <si>
-    <t>Intro to coastal monitoring</t>
-  </si>
-  <si>
-    <t>WQ parameters and CTDs</t>
-  </si>
-  <si>
-    <t>Data management and NPP</t>
-  </si>
-  <si>
-    <t>Benthic monitoring</t>
-  </si>
-  <si>
-    <t>Continuous monitoring</t>
-  </si>
-  <si>
-    <t>Plankton monitoring</t>
-  </si>
-  <si>
-    <t>NPP measurements</t>
-  </si>
-  <si>
-    <t>Hydrologic monitoring</t>
-  </si>
-  <si>
-    <t>Water quality monitoring and knot tying</t>
-  </si>
-  <si>
-    <t>Skills review</t>
-  </si>
-  <si>
-    <t>Skills assessment</t>
-  </si>
-  <si>
-    <t>DIY monitoring technology</t>
-  </si>
-  <si>
-    <t>No class - Thanksgiving</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>quiz</t>
-  </si>
-  <si>
-    <t>Quiz 3: NPP and data management</t>
-  </si>
-  <si>
-    <t>Quiz 4: Plankton monitoring</t>
-  </si>
-  <si>
-    <t>Quiz 5: Continuous monitoring</t>
-  </si>
-  <si>
-    <t>NPP incubations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiz 6: NPP </t>
-  </si>
-  <si>
-    <t>NPP data</t>
-  </si>
-  <si>
-    <t>Quiz 7: Hydrologic monitoring</t>
-  </si>
-  <si>
-    <t>Basic water quality measurements</t>
   </si>
   <si>
     <t>week</t>
   </si>
   <si>
-    <t>topic and slides</t>
+    <t>topic</t>
   </si>
   <si>
-    <t>Quiz 1: Chesapeake Watershed Agreement</t>
+    <t>lesson plan</t>
   </si>
   <si>
-    <t>Quiz 2: Water quality and filtering</t>
+    <t>assessment</t>
   </si>
   <si>
-    <t>More water quality</t>
+    <t>hw</t>
   </si>
   <si>
-    <t>Data entry and NPP</t>
-  </si>
-  <si>
-    <t>Benthic sampling</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>Tracking progress</t>
-  </si>
-  <si>
-    <t>Filtering methods</t>
-  </si>
-  <si>
-    <t>Deriving WQ criteria</t>
+    <t>Lab:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +181,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -616,7 +532,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,258 +920,432 @@
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="5" width="37" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45534</v>
-      </c>
-      <c r="C2" t="s">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45533</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B5" s="1">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>45541</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" s="1">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45540</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B8" s="1">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B9" s="1">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45547</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B11" s="1">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B12" s="1">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45554</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B14" s="1">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B15" s="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45569</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45576</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45583</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45590</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45597</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45604</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45611</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45618</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45625</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="B16" s="1">
-        <v>45632</v>
+        <v>45561</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>45638</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45568</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45589</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45596</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45603</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45610</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45617</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45624</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45631</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBD75B-1CA3-C045-B9F9-07AEB25A5B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F3043-0B90-454A-957F-C07B8F1BD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34600" yWindow="2260" windowWidth="28040" windowHeight="18660" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="28480" windowHeight="17420" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,321 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>week</t>
-  </si>
-  <si>
     <t>topic</t>
   </si>
   <si>
-    <t>lesson plan</t>
-  </si>
-  <si>
     <t>assessment</t>
   </si>
   <si>
-    <t>hw</t>
-  </si>
-  <si>
-    <t>Lab:</t>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Data organization</t>
+  </si>
+  <si>
+    <t>Statistical analysis of field data</t>
+  </si>
+  <si>
+    <t>Lab 3: Environmental measurements at Point Lookout</t>
+  </si>
+  <si>
+    <t>Sampling design and pseudoreplication</t>
+  </si>
+  <si>
+    <t>Marsh data analysis</t>
+  </si>
+  <si>
+    <t>Lab 4: Marsh sample processing and data analysis</t>
+  </si>
+  <si>
+    <t>We will be indoors</t>
+  </si>
+  <si>
+    <t>Lab 5: Benthic sampling at CBL</t>
+  </si>
+  <si>
+    <t>Wear comfortable outdoor clothing. Be prepared to spend all afternoon outside.</t>
+  </si>
+  <si>
+    <t>Pelagic sampling: microscopic</t>
+  </si>
+  <si>
+    <t>Pelagic sampling: macroscopic</t>
+  </si>
+  <si>
+    <t>Lab 6: Benthic sample processing</t>
+  </si>
+  <si>
+    <t>**Fall reading day: no class**</t>
+  </si>
+  <si>
+    <t>SAV sampling and benthic data analysis</t>
+  </si>
+  <si>
+    <t>**CBG fieldwork: no class**</t>
+  </si>
+  <si>
+    <t>**CBG fieldwork: no lab**</t>
+  </si>
+  <si>
+    <t>Lab 7: SAV sample processing and benthic data analysis</t>
+  </si>
+  <si>
+    <t>Lab 8: Chemical &amp; physical sampling: Instrument programming and deployment</t>
+  </si>
+  <si>
+    <t>Hypothesis testing</t>
+  </si>
+  <si>
+    <t>Scientific inquiry</t>
+  </si>
+  <si>
+    <t>Methods of data acquisition</t>
+  </si>
+  <si>
+    <t>Statistical inference and marsh study design</t>
+  </si>
+  <si>
+    <t>The subtidal environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benthic sampling </t>
+  </si>
+  <si>
+    <t>Oceanographic variables</t>
+  </si>
+  <si>
+    <t>Physical and chemical sampling</t>
+  </si>
+  <si>
+    <t>**Advising day: no class**</t>
+  </si>
+  <si>
+    <t>More coastal physics</t>
+  </si>
+  <si>
+    <t>More coastal chemistry</t>
+  </si>
+  <si>
+    <t>Lab 9: Chemical and physical instrument retrieval and data download</t>
+  </si>
+  <si>
+    <t>Physical and chemical data analysis</t>
+  </si>
+  <si>
+    <t>Lab 10: Physical and chemical data analysis</t>
+  </si>
+  <si>
+    <t>Lab 11: Poster workshop I</t>
+  </si>
+  <si>
+    <t>**Thanksgiving: no class**</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Wear long pants and bring waterproof boots. Be prepared to spend most of the afternoon outside.</t>
+  </si>
+  <si>
+    <t>Wear comfortable outdoor clothing. Be prepared to spend most of the  afternoon outside.</t>
+  </si>
+  <si>
+    <t>T 8/27</t>
+  </si>
+  <si>
+    <t>Th 8/29</t>
+  </si>
+  <si>
+    <t>T 9/3</t>
+  </si>
+  <si>
+    <t>Th 9/5</t>
+  </si>
+  <si>
+    <t>T 9/10</t>
+  </si>
+  <si>
+    <t>Th 9/12</t>
+  </si>
+  <si>
+    <t>T 9/17</t>
+  </si>
+  <si>
+    <t>Th 9/19</t>
+  </si>
+  <si>
+    <t>T 9/24</t>
+  </si>
+  <si>
+    <t>Th 9/26</t>
+  </si>
+  <si>
+    <t>T 10/1</t>
+  </si>
+  <si>
+    <t>Th 10/3</t>
+  </si>
+  <si>
+    <t>T 10/8</t>
+  </si>
+  <si>
+    <t>Th 10/10</t>
+  </si>
+  <si>
+    <t>T 10/15</t>
+  </si>
+  <si>
+    <t>Th 10/17</t>
+  </si>
+  <si>
+    <t>T 10/22</t>
+  </si>
+  <si>
+    <t>Th 10/24</t>
+  </si>
+  <si>
+    <t>T 10/29</t>
+  </si>
+  <si>
+    <t>Th 10/31</t>
+  </si>
+  <si>
+    <t>T 11/5</t>
+  </si>
+  <si>
+    <t>Th 11/7</t>
+  </si>
+  <si>
+    <t>T 11/12</t>
+  </si>
+  <si>
+    <t>Th 11/14</t>
+  </si>
+  <si>
+    <t>T 11/19</t>
+  </si>
+  <si>
+    <t>Th 11/21</t>
+  </si>
+  <si>
+    <t>T 11/26</t>
+  </si>
+  <si>
+    <t>Th 11/28</t>
+  </si>
+  <si>
+    <t>T 12/3</t>
+  </si>
+  <si>
+    <t>Th 12/5</t>
+  </si>
+  <si>
+    <t>F 10/4</t>
+  </si>
+  <si>
+    <t>F 10/25</t>
+  </si>
+  <si>
+    <t>F 11/22</t>
+  </si>
+  <si>
+    <t>F 12/6</t>
+  </si>
+  <si>
+    <t>Fall poster symposium: ARC 11:30-1:00</t>
+  </si>
+  <si>
+    <t>Lab: Poster presentation practice</t>
+  </si>
+  <si>
+    <t>Poster work session</t>
+  </si>
+  <si>
+    <t>Lab 12: Poster peer review</t>
+  </si>
+  <si>
+    <t>M 12/2</t>
+  </si>
+  <si>
+    <t>We will be indoors.</t>
+  </si>
+  <si>
+    <t>Attendance is mandatory.</t>
+  </si>
+  <si>
+    <t>Lab 1: Marsh field practice on campus</t>
+  </si>
+  <si>
+    <t>Lab 2: Marsh vegetation transects at Point Lookout</t>
+  </si>
+  <si>
+    <t>[Quiz 1](https://mrne392.github.io/assessment/quiz-1.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 2](https://mrne392.github.io/assessment/quiz-2.html) (marsh species ID)</t>
+  </si>
+  <si>
+    <t>[Quiz 3](https://mrne392.github.io/assessment/quiz-3.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 4](https://mrne392.github.io/assessment/quiz-4.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 5](https://mrne392.github.io/assessment/quiz-5.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 6](https://mrne392.github.io/assessment/quiz-6.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 7](https://mrne392.github.io/assessment/quiz-7.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 8](https://mrne392.github.io/assessment/quiz-8.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 9](https://mrne392.github.io/assessment/quiz-9.html)</t>
+  </si>
+  <si>
+    <t>[Quiz 10](https://mrne392.github.io/assessment/quiz-10.html) (knot-tying)</t>
+  </si>
+  <si>
+    <t>[Quiz 11](https://mrne392.github.io/assessment/quiz-11.html)</t>
+  </si>
+  <si>
+    <t>[Informal knot-tying quiz](https://mrne392.github.io/assessment/knot-tying.html)</t>
+  </si>
+  <si>
+    <t>[Lab report 1](https://mrne392.github.io/assessment/lab-report-1.html) due before midnight</t>
+  </si>
+  <si>
+    <t>[Lab report 2](https://mrne392.github.io/assessment/lab-report-2.html) due before midnight</t>
+  </si>
+  <si>
+    <t>[Lab report 3](https://mrne392.github.io/assessment/lab-report-3.html) due before midnight</t>
+  </si>
+  <si>
+    <t>Draft [poster](https://mrne392.github.io/assessment/poster.html) due before lab</t>
+  </si>
+  <si>
+    <t>[Poster](https://mrne392.github.io/assessment/poster.html) due to printer; hard deadline</t>
+  </si>
+  <si>
+    <t>Bring your printed [poster](https://mrne392.github.io/assessment/poster.html) to lab</t>
+  </si>
+  <si>
+    <t>[Poster](https://mrne392.github.io/assessment/poster.html) presentation</t>
+  </si>
+  <si>
+    <t>[Informal species ID quiz](https://mrne392.github.io/assessment/marsh-species.html)</t>
   </si>
 </sst>
 </file>
@@ -530,9 +824,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,447 +1205,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45533</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45540</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45568</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>45573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45575</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45582</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1">
-        <v>45587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45589</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45589</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45596</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1">
-        <v>45601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1">
-        <v>45603</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1">
-        <v>45608</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45610</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45610</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="1">
-        <v>45615</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45617</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45617</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="1">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45624</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>15</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45631</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45631</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F3043-0B90-454A-957F-C07B8F1BD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27774E4A-C7B4-2C49-9822-C8B2EB5D9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="28480" windowHeight="17420" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="920" yWindow="520" windowWidth="19960" windowHeight="14740" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>topic</t>
-  </si>
-  <si>
     <t>assessment</t>
   </si>
   <si>
-    <t>materials</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
     <t>Hypothesis testing</t>
   </si>
   <si>
-    <t>Scientific inquiry</t>
-  </si>
-  <si>
-    <t>Methods of data acquisition</t>
-  </si>
-  <si>
     <t>Statistical inference and marsh study design</t>
   </si>
   <si>
@@ -148,6 +136,15 @@
     <t>Wear comfortable outdoor clothing. Be prepared to spend most of the  afternoon outside.</t>
   </si>
   <si>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Quiz 3</t>
+  </si>
+  <si>
+    <t>Quiz 4</t>
+  </si>
+  <si>
     <t>T 8/27</t>
   </si>
   <si>
@@ -238,6 +235,21 @@
     <t>Th 12/5</t>
   </si>
   <si>
+    <t>Quiz 5</t>
+  </si>
+  <si>
+    <t>Quiz 6</t>
+  </si>
+  <si>
+    <t>Quiz 8</t>
+  </si>
+  <si>
+    <t>Quiz 9</t>
+  </si>
+  <si>
+    <t>Quiz 10</t>
+  </si>
+  <si>
     <t>F 10/4</t>
   </si>
   <si>
@@ -253,9 +265,6 @@
     <t>Fall poster symposium: ARC 11:30-1:00</t>
   </si>
   <si>
-    <t>Lab: Poster presentation practice</t>
-  </si>
-  <si>
     <t>Poster work session</t>
   </si>
   <si>
@@ -277,39 +286,6 @@
     <t>Lab 2: Marsh vegetation transects at Point Lookout</t>
   </si>
   <si>
-    <t>[Quiz 1](https://mrne392.github.io/assessment/quiz-1.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 2](https://mrne392.github.io/assessment/quiz-2.html) (marsh species ID)</t>
-  </si>
-  <si>
-    <t>[Quiz 3](https://mrne392.github.io/assessment/quiz-3.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 4](https://mrne392.github.io/assessment/quiz-4.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 5](https://mrne392.github.io/assessment/quiz-5.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 6](https://mrne392.github.io/assessment/quiz-6.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 7](https://mrne392.github.io/assessment/quiz-7.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 8](https://mrne392.github.io/assessment/quiz-8.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 9](https://mrne392.github.io/assessment/quiz-9.html)</t>
-  </si>
-  <si>
-    <t>[Quiz 10](https://mrne392.github.io/assessment/quiz-10.html) (knot-tying)</t>
-  </si>
-  <si>
-    <t>[Quiz 11](https://mrne392.github.io/assessment/quiz-11.html)</t>
-  </si>
-  <si>
     <t>[Informal knot-tying quiz](https://mrne392.github.io/assessment/knot-tying.html)</t>
   </si>
   <si>
@@ -334,14 +310,35 @@
     <t>[Poster](https://mrne392.github.io/assessment/poster.html) presentation</t>
   </si>
   <si>
-    <t>[Informal species ID quiz](https://mrne392.github.io/assessment/marsh-species.html)</t>
+    <t>Lab 13: Poster presentation practice</t>
+  </si>
+  <si>
+    <t>topic and materials</t>
+  </si>
+  <si>
+    <t>Experimental design</t>
+  </si>
+  <si>
+    <t>[Scientific inquiry](https://mrne392.github.io/lesson-plans/01-scientific-inquiry.html)</t>
+  </si>
+  <si>
+    <t>Quiz 7: Benthic organism ID</t>
+  </si>
+  <si>
+    <t>Quiz 12</t>
+  </si>
+  <si>
+    <t>Quiz 11: [Knot-tying](https://mrne392.github.io/assessment/knot-tying.html)</t>
+  </si>
+  <si>
+    <t>Quiz 2: [Marsh plant species ID](https://mrne392.github.io/assessment/marsh-species.html)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,6 +478,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -824,10 +828,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,526 +1212,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="54.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27774E4A-C7B4-2C49-9822-C8B2EB5D9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210AEF8-D5B8-6B4E-A563-B5CCCABE5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="520" windowWidth="19960" windowHeight="14740" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="4000" yWindow="980" windowWidth="20980" windowHeight="15780" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>date</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Lab 8: Chemical &amp; physical sampling: Instrument programming and deployment</t>
   </si>
   <si>
-    <t>Hypothesis testing</t>
-  </si>
-  <si>
-    <t>Statistical inference and marsh study design</t>
-  </si>
-  <si>
     <t>The subtidal environment</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>Attendance is mandatory.</t>
   </si>
   <si>
-    <t>Lab 1: Marsh field practice on campus</t>
-  </si>
-  <si>
     <t>Lab 2: Marsh vegetation transects at Point Lookout</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     <t>topic and materials</t>
   </si>
   <si>
-    <t>Experimental design</t>
-  </si>
-  <si>
     <t>[Scientific inquiry](https://mrne392.github.io/lesson-plans/01-scientific-inquiry.html)</t>
   </si>
   <si>
@@ -332,6 +320,21 @@
   </si>
   <si>
     <t>Quiz 2: [Marsh plant species ID](https://mrne392.github.io/assessment/marsh-species.html)</t>
+  </si>
+  <si>
+    <t>Wear long pants and bring waterproof boots (we have extra boots you can use). Be prepared to spend most of the afternoon outside.</t>
+  </si>
+  <si>
+    <t>[Experimental design](https://mrne392.github.io/lesson-plans/02-experimental-design.html)</t>
+  </si>
+  <si>
+    <t>Lab 1: [Marsh field practice](https://mrne392.github.io/lesson-plans/02-experimental-design.html)</t>
+  </si>
+  <si>
+    <t>[Statistical inference]</t>
+  </si>
+  <si>
+    <t>[Marsh study design]</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1218,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1242,78 +1245,78 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1321,29 +1324,29 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1362,26 +1365,26 @@
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -1392,18 +1395,18 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -1411,29 +1414,29 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1441,29 +1444,29 @@
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -1487,247 +1490,247 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210AEF8-D5B8-6B4E-A563-B5CCCABE5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA553F-5877-DA45-AC2D-21E982B2D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="980" windowWidth="20980" windowHeight="15780" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="31220" yWindow="2580" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>date</t>
   </si>
@@ -31,9 +31,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Data organization</t>
-  </si>
-  <si>
     <t>Statistical analysis of field data</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Wear long pants and bring waterproof boots. Be prepared to spend most of the afternoon outside.</t>
-  </si>
-  <si>
     <t>Wear comfortable outdoor clothing. Be prepared to spend most of the  afternoon outside.</t>
   </si>
   <si>
@@ -322,19 +316,31 @@
     <t>Quiz 2: [Marsh plant species ID](https://mrne392.github.io/assessment/marsh-species.html)</t>
   </si>
   <si>
-    <t>Wear long pants and bring waterproof boots (we have extra boots you can use). Be prepared to spend most of the afternoon outside.</t>
-  </si>
-  <si>
     <t>[Experimental design](https://mrne392.github.io/lesson-plans/02-experimental-design.html)</t>
   </si>
   <si>
     <t>Lab 1: [Marsh field practice](https://mrne392.github.io/lesson-plans/02-experimental-design.html)</t>
   </si>
   <si>
-    <t>[Statistical inference]</t>
-  </si>
-  <si>
-    <t>[Marsh study design]</t>
+    <t>Lab is in the marsh on campus. Wear long pants and bring waterproof boots. Be prepared to spend most of the afternoon outside.</t>
+  </si>
+  <si>
+    <t>Lab is at Point Lookout. Wear long pants (light, loose-fitting synthetic material is best; avoid jeans and tights). Bring waterproof boots (we have extra boots in limited sizes - if you own any please bring them). Be prepared to spend most of the afternoon outside.</t>
+  </si>
+  <si>
+    <t>Data organization and statistical inference</t>
+  </si>
+  <si>
+    <t>Bring your notes for taking part II of the quiz; notes must be on paper (typed or hand-written)</t>
+  </si>
+  <si>
+    <t>Lab is at Point Lookout. Wear long pants (light, loose-fitting synthetic material is best; avoid jeans and tights). Bring waterproof boots (we have extra boots in limited sizes - if you own any please bring them). Be prepared to spend most of the afternoon outside. Bring your marsh plants species ID guide.</t>
+  </si>
+  <si>
+    <t>[Marsh study design](https://mrne392.github.io/lesson-plans/03-marsh-study-design.html)</t>
+  </si>
+  <si>
+    <t>[Marsh field methods](https://mrne392.github.io/lesson-plans/04-marsh-field-methods.html)</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1224,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1245,492 +1251,519 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA553F-5877-DA45-AC2D-21E982B2D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CD8E8E-1FEC-CF46-B12E-75164B293971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31220" yWindow="2580" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="31680" yWindow="2240" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>date</t>
   </si>
@@ -31,18 +31,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Statistical analysis of field data</t>
-  </si>
-  <si>
-    <t>Lab 3: Environmental measurements at Point Lookout</t>
-  </si>
-  <si>
-    <t>Sampling design and pseudoreplication</t>
-  </si>
-  <si>
-    <t>Marsh data analysis</t>
-  </si>
-  <si>
     <t>Lab 4: Marsh sample processing and data analysis</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>Physical and chemical sampling</t>
   </si>
   <si>
-    <t>**Advising day: no class**</t>
-  </si>
-  <si>
     <t>More coastal physics</t>
   </si>
   <si>
@@ -268,9 +253,6 @@
     <t>Attendance is mandatory.</t>
   </si>
   <si>
-    <t>Lab 2: Marsh vegetation transects at Point Lookout</t>
-  </si>
-  <si>
     <t>[Informal knot-tying quiz](https://mrne392.github.io/assessment/knot-tying.html)</t>
   </si>
   <si>
@@ -325,15 +307,6 @@
     <t>Lab is in the marsh on campus. Wear long pants and bring waterproof boots. Be prepared to spend most of the afternoon outside.</t>
   </si>
   <si>
-    <t>Lab is at Point Lookout. Wear long pants (light, loose-fitting synthetic material is best; avoid jeans and tights). Bring waterproof boots (we have extra boots in limited sizes - if you own any please bring them). Be prepared to spend most of the afternoon outside.</t>
-  </si>
-  <si>
-    <t>Data organization and statistical inference</t>
-  </si>
-  <si>
-    <t>Bring your notes for taking part II of the quiz; notes must be on paper (typed or hand-written)</t>
-  </si>
-  <si>
     <t>Lab is at Point Lookout. Wear long pants (light, loose-fitting synthetic material is best; avoid jeans and tights). Bring waterproof boots (we have extra boots in limited sizes - if you own any please bring them). Be prepared to spend most of the afternoon outside. Bring your marsh plants species ID guide.</t>
   </si>
   <si>
@@ -341,6 +314,30 @@
   </si>
   <si>
     <t>[Marsh field methods](https://mrne392.github.io/lesson-plans/04-marsh-field-methods.html)</t>
+  </si>
+  <si>
+    <t>Bring your notes for the quiz; notes must be on paper (typed or hand-written)</t>
+  </si>
+  <si>
+    <t>**New advising day: no class**</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Lab 3: Marsh sample analysis</t>
+  </si>
+  <si>
+    <t>Statistical inference, cont.</t>
+  </si>
+  <si>
+    <t>Lab 2: [Marsh vegetation transects at Point Lookout](https://mrne392.github.io/lesson-plans/05-point-lookout-fieldwork.html)</t>
+  </si>
+  <si>
+    <t>[Data organization](https://mrne392.github.io/lesson-plans/06-data-organization.html)</t>
+  </si>
+  <si>
+    <t>[Statistical inference](https://mrne392.github.io/lesson-plans/07-statistical-inference.html)</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1251,519 +1248,519 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CD8E8E-1FEC-CF46-B12E-75164B293971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B6985F-80C4-6F42-AD73-E65F9E0F39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="2240" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="34500" yWindow="3060" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Lab 5: Benthic sampling at CBL</t>
   </si>
   <si>
-    <t>Wear comfortable outdoor clothing. Be prepared to spend all afternoon outside.</t>
-  </si>
-  <si>
     <t>Pelagic sampling: microscopic</t>
   </si>
   <si>
@@ -304,12 +301,6 @@
     <t>Lab 1: [Marsh field practice](https://mrne392.github.io/lesson-plans/02-experimental-design.html)</t>
   </si>
   <si>
-    <t>Lab is in the marsh on campus. Wear long pants and bring waterproof boots. Be prepared to spend most of the afternoon outside.</t>
-  </si>
-  <si>
-    <t>Lab is at Point Lookout. Wear long pants (light, loose-fitting synthetic material is best; avoid jeans and tights). Bring waterproof boots (we have extra boots in limited sizes - if you own any please bring them). Be prepared to spend most of the afternoon outside. Bring your marsh plants species ID guide.</t>
-  </si>
-  <si>
     <t>[Marsh study design](https://mrne392.github.io/lesson-plans/03-marsh-study-design.html)</t>
   </si>
   <si>
@@ -325,19 +316,34 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Lab 3: Marsh sample analysis</t>
-  </si>
-  <si>
-    <t>Statistical inference, cont.</t>
-  </si>
-  <si>
     <t>Lab 2: [Marsh vegetation transects at Point Lookout](https://mrne392.github.io/lesson-plans/05-point-lookout-fieldwork.html)</t>
   </si>
   <si>
     <t>[Data organization](https://mrne392.github.io/lesson-plans/06-data-organization.html)</t>
   </si>
   <si>
-    <t>[Statistical inference](https://mrne392.github.io/lesson-plans/07-statistical-inference.html)</t>
+    <t>Lab 3: [Marsh sample processing](https://mrne392.github.io/lesson-plans/08-marsh-smaple-processing.html)</t>
+  </si>
+  <si>
+    <t>[Descriptive statistics](https://mrne392.github.io/lesson-plans/07-descriptive-statistics.html)</t>
+  </si>
+  <si>
+    <t>[Statistical inverence](https://mrne392.github.io/lesson-plans/09-statistical-inference.html)</t>
+  </si>
+  <si>
+    <t>We will be indoors; guest instructor - Kylie Cherneskie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab is at Point Lookout. Wear long pants (light, loose-fitting synthetic material is best; avoid jeans and tights). Bring waterproof boots (we have extra boots in limited sizes - if you own any please bring them). Be prepared to spend most of the afternoon outside. Bring your marsh plants species ID guide. Guest instructor - Kylie Cherneskie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab is in the marsh on campus. Wear long pants and bring waterproof boots. Be prepared to spend most of the afternoon outside. Guest instructor - Kylie Cherneskie. </t>
+  </si>
+  <si>
+    <t>We will be indoors. Guest instructor - Nina Santos.</t>
+  </si>
+  <si>
+    <t>Wear comfortable outdoor clothing. Be prepared to spend all afternoon outside. Guest instructor - Nina Santos.</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1248,95 +1254,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1344,423 +1350,423 @@
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B6985F-80C4-6F42-AD73-E65F9E0F39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E9E909-22A2-9448-B279-4808DC81CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34500" yWindow="3060" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -322,9 +322,6 @@
     <t>[Data organization](https://mrne392.github.io/lesson-plans/06-data-organization.html)</t>
   </si>
   <si>
-    <t>Lab 3: [Marsh sample processing](https://mrne392.github.io/lesson-plans/08-marsh-smaple-processing.html)</t>
-  </si>
-  <si>
     <t>[Descriptive statistics](https://mrne392.github.io/lesson-plans/07-descriptive-statistics.html)</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>Wear comfortable outdoor clothing. Be prepared to spend all afternoon outside. Guest instructor - Nina Santos.</t>
+  </si>
+  <si>
+    <t>Lab 3: [Marsh sample processing](https://mrne392.github.io/lesson-plans/08-marsh-sample-processing.html)</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1276,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1364,7 +1364,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1447,7 +1447,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E9E909-22A2-9448-B279-4808DC81CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D3F121-C7CD-F348-B5C2-F181D0305586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="3060" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="31740" yWindow="1820" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>date</t>
   </si>
@@ -31,9 +31,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Lab 4: Marsh sample processing and data analysis</t>
-  </si>
-  <si>
     <t>We will be indoors</t>
   </si>
   <si>
@@ -211,18 +208,12 @@
     <t>Quiz 6</t>
   </si>
   <si>
-    <t>Quiz 8</t>
-  </si>
-  <si>
     <t>Quiz 9</t>
   </si>
   <si>
     <t>Quiz 10</t>
   </si>
   <si>
-    <t>F 10/4</t>
-  </si>
-  <si>
     <t>F 10/25</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>[Informal knot-tying quiz](https://mrne392.github.io/assessment/knot-tying.html)</t>
   </si>
   <si>
-    <t>[Lab report 1](https://mrne392.github.io/assessment/lab-report-1.html) due before midnight</t>
-  </si>
-  <si>
     <t>[Lab report 2](https://mrne392.github.io/assessment/lab-report-2.html) due before midnight</t>
   </si>
   <si>
@@ -344,6 +332,12 @@
   </si>
   <si>
     <t>Lab 3: [Marsh sample processing](https://mrne392.github.io/lesson-plans/08-marsh-sample-processing.html)</t>
+  </si>
+  <si>
+    <t>Quiz 8; [Lab report 1](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
+  </si>
+  <si>
+    <t>Lab 4: [Marsh sample processing and data analysis](https://mrne392.github.io/lesson-plans/10-marsh-data-analysis.html)</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1254,241 +1248,241 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1496,125 +1490,128 @@
         <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1622,10 +1619,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1633,15 +1627,18 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1649,10 +1646,7 @@
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1660,37 +1654,37 @@
         <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>79</v>
+      <c r="B43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1698,31 +1692,31 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1730,43 +1724,35 @@
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D3F121-C7CD-F348-B5C2-F181D0305586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC2EE8-6955-3E49-BF9F-AE0FAB86E700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="1820" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="34120" yWindow="2720" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <t>[Descriptive statistics](https://mrne392.github.io/lesson-plans/07-descriptive-statistics.html)</t>
   </si>
   <si>
-    <t>[Statistical inverence](https://mrne392.github.io/lesson-plans/09-statistical-inference.html)</t>
-  </si>
-  <si>
     <t>We will be indoors; guest instructor - Kylie Cherneskie</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>Lab 4: [Marsh sample processing and data analysis](https://mrne392.github.io/lesson-plans/10-marsh-data-analysis.html)</t>
+  </si>
+  <si>
+    <t>[Statistical inference](https://mrne392.github.io/lesson-plans/09-statistical-inference.html)</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1270,7 @@
         <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
@@ -1369,10 +1369,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1441,7 +1441,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>91</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC2EE8-6955-3E49-BF9F-AE0FAB86E700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F45BD-73A6-684F-A94A-8954A82522BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="2720" windowWidth="32540" windowHeight="18320" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>Lab 8: Chemical &amp; physical sampling: Instrument programming and deployment</t>
   </si>
   <si>
-    <t>The subtidal environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benthic sampling </t>
-  </si>
-  <si>
     <t>Oceanographic variables</t>
   </si>
   <si>
@@ -338,6 +332,12 @@
   </si>
   <si>
     <t>[Statistical inference](https://mrne392.github.io/lesson-plans/09-statistical-inference.html)</t>
+  </si>
+  <si>
+    <t>[Scientific writing](https://mrne392.github.io/lesson-plans/11-scientific-writing.html)</t>
+  </si>
+  <si>
+    <t>[Benthic sampling](https://mrne392.github.io/lesson-plans/12-benthic-sampling.html)</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1248,95 +1248,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1344,87 +1344,87 @@
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -1432,21 +1432,21 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1454,32 +1454,32 @@
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -1503,256 +1503,256 @@
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F45BD-73A6-684F-A94A-8954A82522BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C35E72-0AFC-CB47-A6AF-B2ABAE18CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="33500" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>date</t>
   </si>
@@ -37,12 +50,6 @@
     <t>Lab 5: Benthic sampling at CBL</t>
   </si>
   <si>
-    <t>Pelagic sampling: microscopic</t>
-  </si>
-  <si>
-    <t>Pelagic sampling: macroscopic</t>
-  </si>
-  <si>
     <t>Lab 6: Benthic sample processing</t>
   </si>
   <si>
@@ -208,12 +215,6 @@
     <t>Quiz 10</t>
   </si>
   <si>
-    <t>F 10/25</t>
-  </si>
-  <si>
-    <t>F 11/22</t>
-  </si>
-  <si>
     <t>F 12/6</t>
   </si>
   <si>
@@ -232,18 +233,9 @@
     <t>We will be indoors.</t>
   </si>
   <si>
-    <t>Attendance is mandatory.</t>
-  </si>
-  <si>
     <t>[Informal knot-tying quiz](https://mrne392.github.io/assessment/knot-tying.html)</t>
   </si>
   <si>
-    <t>[Lab report 2](https://mrne392.github.io/assessment/lab-report-2.html) due before midnight</t>
-  </si>
-  <si>
-    <t>[Lab report 3](https://mrne392.github.io/assessment/lab-report-3.html) due before midnight</t>
-  </si>
-  <si>
     <t>Draft [poster](https://mrne392.github.io/assessment/poster.html) due before lab</t>
   </si>
   <si>
@@ -265,9 +257,6 @@
     <t>[Scientific inquiry](https://mrne392.github.io/lesson-plans/01-scientific-inquiry.html)</t>
   </si>
   <si>
-    <t>Quiz 7: Benthic organism ID</t>
-  </si>
-  <si>
     <t>Quiz 12</t>
   </si>
   <si>
@@ -295,9 +284,6 @@
     <t>**New advising day: no class**</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Lab 2: [Marsh vegetation transects at Point Lookout](https://mrne392.github.io/lesson-plans/05-point-lookout-fieldwork.html)</t>
   </si>
   <si>
@@ -319,15 +305,9 @@
     <t>We will be indoors. Guest instructor - Nina Santos.</t>
   </si>
   <si>
-    <t>Wear comfortable outdoor clothing. Be prepared to spend all afternoon outside. Guest instructor - Nina Santos.</t>
-  </si>
-  <si>
     <t>Lab 3: [Marsh sample processing](https://mrne392.github.io/lesson-plans/08-marsh-sample-processing.html)</t>
   </si>
   <si>
-    <t>Quiz 8; [Lab report 1](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
-  </si>
-  <si>
     <t>Lab 4: [Marsh sample processing and data analysis](https://mrne392.github.io/lesson-plans/10-marsh-data-analysis.html)</t>
   </si>
   <si>
@@ -337,7 +317,31 @@
     <t>[Scientific writing](https://mrne392.github.io/lesson-plans/11-scientific-writing.html)</t>
   </si>
   <si>
-    <t>[Benthic sampling](https://mrne392.github.io/lesson-plans/12-benthic-sampling.html)</t>
+    <t>Quiz 7; [Lab report 1](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
+  </si>
+  <si>
+    <t>Quiz 8: SAV species ID</t>
+  </si>
+  <si>
+    <t>[Benthos](https://mrne392.github.io/lesson-plans/12-benthic-sampling.html)</t>
+  </si>
+  <si>
+    <t>Bethic sampling</t>
+  </si>
+  <si>
+    <t>Pelagic sampling</t>
+  </si>
+  <si>
+    <t>[Lab report 3](https://mrne392.github.io/assessment/lab-report-3.html) due in class</t>
+  </si>
+  <si>
+    <t>[Lab report 2](https://mrne392.github.io/assessment/lab-report-2.html) due in class</t>
+  </si>
+  <si>
+    <t>Attendance is mandatory; this will take the place of our scheduled final exam time</t>
+  </si>
+  <si>
+    <t>Wear comfortable outdoor clothing and closed-toe shoes. Be prepared to spend all afternoon outside. Guest instructor - Nina Santos.</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1248,95 +1252,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1344,415 +1348,405 @@
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>73</v>
+      <c r="B42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C35E72-0AFC-CB47-A6AF-B2ABAE18CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B696D-FF09-354E-86E8-F6CB257CCC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33500" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="29180" yWindow="500" windowWidth="32020" windowHeight="19500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>date</t>
   </si>
@@ -56,9 +56,6 @@
     <t>**Fall reading day: no class**</t>
   </si>
   <si>
-    <t>SAV sampling and benthic data analysis</t>
-  </si>
-  <si>
     <t>**CBG fieldwork: no class**</t>
   </si>
   <si>
@@ -206,15 +203,9 @@
     <t>Quiz 5</t>
   </si>
   <si>
-    <t>Quiz 6</t>
-  </si>
-  <si>
     <t>Quiz 9</t>
   </si>
   <si>
-    <t>Quiz 10</t>
-  </si>
-  <si>
     <t>F 12/6</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
     <t>Quiz 12</t>
   </si>
   <si>
-    <t>Quiz 11: [Knot-tying](https://mrne392.github.io/assessment/knot-tying.html)</t>
-  </si>
-  <si>
     <t>Quiz 2: [Marsh plant species ID](https://mrne392.github.io/assessment/marsh-species.html)</t>
   </si>
   <si>
@@ -317,18 +305,6 @@
     <t>[Scientific writing](https://mrne392.github.io/lesson-plans/11-scientific-writing.html)</t>
   </si>
   <si>
-    <t>Quiz 7; [Lab report 1](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
-  </si>
-  <si>
-    <t>Quiz 8: SAV species ID</t>
-  </si>
-  <si>
-    <t>[Benthos](https://mrne392.github.io/lesson-plans/12-benthic-sampling.html)</t>
-  </si>
-  <si>
-    <t>Bethic sampling</t>
-  </si>
-  <si>
     <t>Pelagic sampling</t>
   </si>
   <si>
@@ -342,6 +318,30 @@
   </si>
   <si>
     <t>Wear comfortable outdoor clothing and closed-toe shoes. Be prepared to spend all afternoon outside. Guest instructor - Nina Santos.</t>
+  </si>
+  <si>
+    <t>Benthic sampling</t>
+  </si>
+  <si>
+    <t>Quiz 6; [Lab report 1](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
+  </si>
+  <si>
+    <t>Quiz 7: SAV species ID</t>
+  </si>
+  <si>
+    <t>Quiz 8</t>
+  </si>
+  <si>
+    <t>Quiz 10: [Knot-tying](https://mrne392.github.io/assessment/knot-tying.html)</t>
+  </si>
+  <si>
+    <t>Quiz 11</t>
+  </si>
+  <si>
+    <t>[Benthos](https://mrne392.github.io/lesson-plans/12-benthos.html)</t>
+  </si>
+  <si>
+    <t>[Catch-up](https://mrne392.github.io/lesson-plans/13-catch-up.html)</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1252,95 +1252,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1348,106 +1348,101 @@
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1455,298 +1450,301 @@
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B696D-FF09-354E-86E8-F6CB257CCC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C677687E-CBE6-F94D-811B-FB92EECC6306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="500" windowWidth="32020" windowHeight="19500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>Wear comfortable outdoor clothing and closed-toe shoes. Be prepared to spend all afternoon outside. Guest instructor - Nina Santos.</t>
   </si>
   <si>
-    <t>Benthic sampling</t>
-  </si>
-  <si>
     <t>Quiz 6; [Lab report 1](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>[Catch-up](https://mrne392.github.io/lesson-plans/13-catch-up.html)</t>
+  </si>
+  <si>
+    <t>[Benthic sampling](https://mrne392.github.io/lesson-plans/14-benthic-sampling.html)</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>55</v>
@@ -1417,15 +1417,15 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1456,7 +1456,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>77</v>
@@ -1470,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>62</v>
@@ -1508,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>77</v>
@@ -1569,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>21</v>
@@ -1591,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>77</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C677687E-CBE6-F94D-811B-FB92EECC6306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB78402B-C051-EB47-9DF5-D18D47050903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="30520" yWindow="3340" windowWidth="26880" windowHeight="17080" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>date</t>
   </si>
@@ -62,9 +62,6 @@
     <t>**CBG fieldwork: no lab**</t>
   </si>
   <si>
-    <t>Lab 7: SAV sample processing and benthic data analysis</t>
-  </si>
-  <si>
     <t>Lab 8: Chemical &amp; physical sampling: Instrument programming and deployment</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>We will be indoors.</t>
   </si>
   <si>
-    <t>[Informal knot-tying quiz](https://mrne392.github.io/assessment/knot-tying.html)</t>
-  </si>
-  <si>
     <t>Draft [poster](https://mrne392.github.io/assessment/poster.html) due before lab</t>
   </si>
   <si>
@@ -305,15 +299,9 @@
     <t>[Scientific writing](https://mrne392.github.io/lesson-plans/11-scientific-writing.html)</t>
   </si>
   <si>
-    <t>Pelagic sampling</t>
-  </si>
-  <si>
     <t>[Lab report 3](https://mrne392.github.io/assessment/lab-report-3.html) due in class</t>
   </si>
   <si>
-    <t>[Lab report 2](https://mrne392.github.io/assessment/lab-report-2.html) due in class</t>
-  </si>
-  <si>
     <t>Attendance is mandatory; this will take the place of our scheduled final exam time</t>
   </si>
   <si>
@@ -323,15 +311,9 @@
     <t>Quiz 6; [Lab report 1](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
   </si>
   <si>
-    <t>Quiz 7: SAV species ID</t>
-  </si>
-  <si>
     <t>Quiz 8</t>
   </si>
   <si>
-    <t>Quiz 10: [Knot-tying](https://mrne392.github.io/assessment/knot-tying.html)</t>
-  </si>
-  <si>
     <t>Quiz 11</t>
   </si>
   <si>
@@ -342,6 +324,24 @@
   </si>
   <si>
     <t>[Benthic sampling](https://mrne392.github.io/lesson-plans/14-benthic-sampling.html)</t>
+  </si>
+  <si>
+    <t>[Lab report 2](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?usp=sharing) due in class</t>
+  </si>
+  <si>
+    <t>Quiz 10</t>
+  </si>
+  <si>
+    <t>[Quiz 7: knot tying](https://mrne392.github.io/assessment/knot-tying.html)</t>
+  </si>
+  <si>
+    <t>[Benthic data analysis](https://mrne392.github.io/lesson-plans/15-benthic-data-analysis.html)</t>
+  </si>
+  <si>
+    <t>Lab 7: [SAV sample processing](https://mrne392.github.io/lesson-plans/16-sav-sample-processing.html)</t>
+  </si>
+  <si>
+    <t>Wear comfortable outdoor clothing. Be prepared to spend most of the afternoon outside.</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1252,197 +1252,197 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1450,35 +1450,32 @@
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1494,257 +1491,256 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB78402B-C051-EB47-9DF5-D18D47050903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6522349B-6149-2345-B89C-48BBB17CD84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30520" yWindow="3340" windowWidth="26880" windowHeight="17080" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="30500" yWindow="3340" windowWidth="26880" windowHeight="17080" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,6 @@
     <t>Lab 8: Chemical &amp; physical sampling: Instrument programming and deployment</t>
   </si>
   <si>
-    <t>Oceanographic variables</t>
-  </si>
-  <si>
-    <t>Physical and chemical sampling</t>
-  </si>
-  <si>
     <t>More coastal physics</t>
   </si>
   <si>
@@ -342,6 +336,12 @@
   </si>
   <si>
     <t>Wear comfortable outdoor clothing. Be prepared to spend most of the afternoon outside.</t>
+  </si>
+  <si>
+    <t>[Oceanographic variables](https://mrne392.github.io/lesson-plans/17-ocean-variables.html)</t>
+  </si>
+  <si>
+    <t>[Hydrologic sampling methods](https://mrne392.github.io/lesson-plans/18-hydrologic-methods.html)</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1252,95 +1252,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1348,101 +1348,101 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1450,32 +1450,32 @@
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1491,256 +1491,256 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6522349B-6149-2345-B89C-48BBB17CD84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B15C4-6821-D049-92F4-3D64632B069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="3340" windowWidth="26880" windowHeight="17080" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>date</t>
   </si>
@@ -62,24 +62,12 @@
     <t>**CBG fieldwork: no lab**</t>
   </si>
   <si>
-    <t>Lab 8: Chemical &amp; physical sampling: Instrument programming and deployment</t>
-  </si>
-  <si>
-    <t>More coastal physics</t>
-  </si>
-  <si>
     <t>More coastal chemistry</t>
   </si>
   <si>
-    <t>Lab 9: Chemical and physical instrument retrieval and data download</t>
-  </si>
-  <si>
     <t>Physical and chemical data analysis</t>
   </si>
   <si>
-    <t>Lab 10: Physical and chemical data analysis</t>
-  </si>
-  <si>
     <t>Lab 11: Poster workshop I</t>
   </si>
   <si>
@@ -342,6 +330,21 @@
   </si>
   <si>
     <t>[Hydrologic sampling methods](https://mrne392.github.io/lesson-plans/18-hydrologic-methods.html)</t>
+  </si>
+  <si>
+    <t>Lab 9: Hydrologic sampling fieldwork</t>
+  </si>
+  <si>
+    <t>Lab 10: Hydrologic sampling fieldwork</t>
+  </si>
+  <si>
+    <t>Hydrologic data analysis</t>
+  </si>
+  <si>
+    <t>Hydrologic sampling planning</t>
+  </si>
+  <si>
+    <t>Lab 8: [Hydrologic sampling planning](https://mrne392.github.io/lesson-plans/19-hydrologic-field-study-plan.html)</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1252,95 +1255,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1348,101 +1351,101 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1450,32 +1453,32 @@
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1483,7 +1486,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1499,248 +1502,248 @@
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B15C4-6821-D049-92F4-3D64632B069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD9987-B975-B746-97B9-4AED093EB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>date</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Lab 8: [Hydrologic sampling planning](https://mrne392.github.io/lesson-plans/19-hydrologic-field-study-plan.html)</t>
+  </si>
+  <si>
+    <t>No class - CBG out sick</t>
+  </si>
+  <si>
+    <t>Please fill out [this spreadsheet](https://docs.google.com/spreadsheets/d/12mjX2OPoZhIaYeV2PQ3UFAC8ydg_2kKZeXzwmPuukt0/edit?usp=sharing) by the end of the day Tuesday 10/29 with your group's deployment gear needs.</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,15 +1537,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD9987-B975-B746-97B9-4AED093EB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23002CD8-6E66-F84A-817B-13CC9DC5C5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -341,9 +341,6 @@
     <t>Hydrologic data analysis</t>
   </si>
   <si>
-    <t>Hydrologic sampling planning</t>
-  </si>
-  <si>
     <t>Lab 8: [Hydrologic sampling planning](https://mrne392.github.io/lesson-plans/19-hydrologic-field-study-plan.html)</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Please fill out [this spreadsheet](https://docs.google.com/spreadsheets/d/12mjX2OPoZhIaYeV2PQ3UFAC8ydg_2kKZeXzwmPuukt0/edit?usp=sharing) by the end of the day Tuesday 10/29 with your group's deployment gear needs.</t>
+  </si>
+  <si>
+    <t>[Hydrologic sampling planning](https://mrne392.github.io/lesson-plans/21-field-study-planning.html)</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>93</v>
@@ -1542,21 +1542,21 @@
         <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>86</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23002CD8-6E66-F84A-817B-13CC9DC5C5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4A4CF-550D-9F47-B5D2-D0149CEAC4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>**CBG fieldwork: no lab**</t>
   </si>
   <si>
-    <t>More coastal chemistry</t>
-  </si>
-  <si>
     <t>Physical and chemical data analysis</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>[Hydrologic sampling planning](https://mrne392.github.io/lesson-plans/21-field-study-planning.html)</t>
+  </si>
+  <si>
+    <t>[Retrieval planning](https://mrne392.github.io/lesson-plans/22-retrieval-planning.html)</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1261,95 +1261,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1357,101 +1357,101 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1459,32 +1459,32 @@
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1508,251 +1508,251 @@
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4A4CF-550D-9F47-B5D2-D0149CEAC4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1403C-6F8B-BB41-9FD3-E6D283FA3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
   <si>
     <t>date</t>
   </si>
@@ -62,18 +62,9 @@
     <t>**CBG fieldwork: no lab**</t>
   </si>
   <si>
-    <t>Physical and chemical data analysis</t>
-  </si>
-  <si>
-    <t>Lab 11: Poster workshop I</t>
-  </si>
-  <si>
     <t>**Thanksgiving: no class**</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Wear comfortable outdoor clothing. Be prepared to spend most of the  afternoon outside.</t>
   </si>
   <si>
@@ -351,6 +342,21 @@
   </si>
   <si>
     <t>[Retrieval planning](https://mrne392.github.io/lesson-plans/22-retrieval-planning.html)</t>
+  </si>
+  <si>
+    <t>Lab 11: Data analysis and poster workshop I</t>
+  </si>
+  <si>
+    <t>Wear comfortable outdoor clothing. Be prepared to spend a portion of the  afternoon outside.</t>
+  </si>
+  <si>
+    <t>Skills and knowledge inventory</t>
+  </si>
+  <si>
+    <t>[Univariate data analysis](https://mrne392.github.io/lesson-plans/23-univariate-analysis.html)</t>
+  </si>
+  <si>
+    <t>[Multivariate data analysis](https://mrne392.github.io/lesson-plans/24-multivariate-analysis.html)</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1261,95 +1267,95 @@
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1357,101 +1363,101 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1459,32 +1465,32 @@
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1492,7 +1498,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1508,251 +1514,248 @@
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1403C-6F8B-BB41-9FD3-E6D283FA3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660AFB65-1EC9-784F-A576-252A1E533BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>Lab 9: Hydrologic sampling fieldwork</t>
   </si>
   <si>
-    <t>Lab 10: Hydrologic sampling fieldwork</t>
-  </si>
-  <si>
     <t>Hydrologic data analysis</t>
   </si>
   <si>
@@ -353,10 +350,13 @@
     <t>Skills and knowledge inventory</t>
   </si>
   <si>
-    <t>[Univariate data analysis](https://mrne392.github.io/lesson-plans/23-univariate-analysis.html)</t>
-  </si>
-  <si>
     <t>[Multivariate data analysis](https://mrne392.github.io/lesson-plans/24-multivariate-analysis.html)</t>
+  </si>
+  <si>
+    <t>[Chasing Coral](https://mrne392.github.io/lesson-plans/23-univariate-analysis.html)</t>
+  </si>
+  <si>
+    <t>[Lab 10: Hydrologic sampling fieldwork](https://mrne392.github.io/lesson-plans/23-lab-logger-retrieval.html)</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>89</v>
@@ -1548,13 +1548,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>82</v>
@@ -1588,7 +1588,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1602,15 +1602,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>88</v>
@@ -1637,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>51</v>
@@ -1716,7 +1716,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>59</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660AFB65-1EC9-784F-A576-252A1E533BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B56004-D9E5-694F-B439-CC34E0459890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t>date</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Draft [poster](https://mrne392.github.io/assessment/poster.html) due before lab</t>
   </si>
   <si>
-    <t>[Poster](https://mrne392.github.io/assessment/poster.html) due to printer; hard deadline</t>
-  </si>
-  <si>
     <t>Bring your printed [poster](https://mrne392.github.io/assessment/poster.html) to lab</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>Lab 9: Hydrologic sampling fieldwork</t>
   </si>
   <si>
-    <t>Hydrologic data analysis</t>
-  </si>
-  <si>
     <t>Lab 8: [Hydrologic sampling planning](https://mrne392.github.io/lesson-plans/19-hydrologic-field-study-plan.html)</t>
   </si>
   <si>
@@ -341,22 +335,34 @@
     <t>[Retrieval planning](https://mrne392.github.io/lesson-plans/22-retrieval-planning.html)</t>
   </si>
   <si>
-    <t>Lab 11: Data analysis and poster workshop I</t>
-  </si>
-  <si>
     <t>Wear comfortable outdoor clothing. Be prepared to spend a portion of the  afternoon outside.</t>
   </si>
   <si>
     <t>Skills and knowledge inventory</t>
   </si>
   <si>
-    <t>[Multivariate data analysis](https://mrne392.github.io/lesson-plans/24-multivariate-analysis.html)</t>
-  </si>
-  <si>
     <t>[Chasing Coral](https://mrne392.github.io/lesson-plans/23-univariate-analysis.html)</t>
   </si>
   <si>
     <t>[Lab 10: Hydrologic sampling fieldwork](https://mrne392.github.io/lesson-plans/23-lab-logger-retrieval.html)</t>
+  </si>
+  <si>
+    <t>[Lab 11: Data analysis and poster workshop I](https://mrne392.github.io/lesson-plans/26-hydro-data-analysis-posters.html)</t>
+  </si>
+  <si>
+    <t>Quiz is open-notes</t>
+  </si>
+  <si>
+    <t>[Poster](https://mrne392.github.io/assessment/poster.html) due to for printing; hard deadline</t>
+  </si>
+  <si>
+    <t>Submit poster file [here](https://drive.google.com/drive/folders/1mnE_qry0ktrRoj5ea9amTtzXqdi2sr3v?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[Hydrologic data analysis cont.](https://mrne392.github.io/lesson-plans/25-hydro-data-analysis-cont.html)</t>
+  </si>
+  <si>
+    <t>[Hydrologic data analysis](https://mrne392.github.io/lesson-plans/24-hydro-data-analysis.html)</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1270,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1278,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1286,10 +1292,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1297,13 +1303,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1311,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1319,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1333,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1347,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1355,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1366,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1374,13 +1380,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1388,10 +1394,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1399,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1407,13 +1413,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1424,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1432,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1440,7 +1446,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1452,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1468,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1482,7 +1488,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
@@ -1517,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1525,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1534,13 +1540,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1548,13 +1554,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1562,13 +1568,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1576,7 +1582,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
@@ -1588,7 +1594,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1596,7 +1602,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>45</v>
@@ -1607,10 +1613,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1618,26 +1624,29 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>51</v>
@@ -1659,7 +1668,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1684,7 +1693,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1703,12 +1712,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1716,7 +1728,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1724,10 +1736,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1735,10 +1747,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>51</v>
@@ -1752,10 +1764,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B56004-D9E5-694F-B439-CC34E0459890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503143D-09A9-DA44-91A6-7B56A57C99D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <t>date</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>[Hydrologic data analysis](https://mrne392.github.io/lesson-plans/24-hydro-data-analysis.html)</t>
+  </si>
+  <si>
+    <t>[Group work session](https://mrne392.github.io/lesson-plans/27-group-work-session.html)</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1652,12 +1655,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503143D-09A9-DA44-91A6-7B56A57C99D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC2D28-679F-AA4A-AD46-A2667297A275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>date</t>
   </si>
@@ -209,9 +209,6 @@
     <t>[Scientific inquiry](https://mrne392.github.io/lesson-plans/01-scientific-inquiry.html)</t>
   </si>
   <si>
-    <t>Quiz 12</t>
-  </si>
-  <si>
     <t>Quiz 2: [Marsh plant species ID](https://mrne392.github.io/assessment/marsh-species.html)</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>Quiz 8</t>
   </si>
   <si>
-    <t>Quiz 11</t>
-  </si>
-  <si>
     <t>[Benthos](https://mrne392.github.io/lesson-plans/12-benthos.html)</t>
   </si>
   <si>
@@ -366,6 +360,9 @@
   </si>
   <si>
     <t>[Group work session](https://mrne392.github.io/lesson-plans/27-group-work-session.html)</t>
+  </si>
+  <si>
+    <t>[Group work session](https://mrne392.github.io/lesson-plans/28-group-work-session.html)</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1295,10 +1292,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1306,13 +1303,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1320,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1328,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1342,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1356,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1364,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1375,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1383,13 +1380,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1397,10 +1394,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1408,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1416,13 +1413,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1433,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1441,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1449,7 +1446,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1461,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1477,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1491,7 +1488,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
@@ -1526,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1534,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1543,13 +1540,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1557,13 +1554,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1571,13 +1568,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1585,7 +1582,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
@@ -1597,7 +1594,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1605,7 +1602,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>45</v>
@@ -1616,10 +1613,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1627,7 +1624,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1635,13 +1632,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1649,7 +1646,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>51</v>
@@ -1660,18 +1657,15 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1696,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1720,10 +1714,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1731,7 +1725,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1739,10 +1733,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1770,7 +1761,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC2D28-679F-AA4A-AD46-A2667297A275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91B18C3-1A94-A94C-A352-9319704EDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     <t>[Scientific writing](https://mrne392.github.io/lesson-plans/11-scientific-writing.html)</t>
   </si>
   <si>
-    <t>[Lab report 3](https://mrne392.github.io/assessment/lab-report-3.html) due in class</t>
-  </si>
-  <si>
     <t>Attendance is mandatory; this will take the place of our scheduled final exam time</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>[Group work session](https://mrne392.github.io/lesson-plans/28-group-work-session.html)</t>
+  </si>
+  <si>
+    <t>[Lab report 3](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?tab=t.0) due in class</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,7 +1413,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1474,10 +1474,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>63</v>
@@ -1488,7 +1488,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
@@ -1523,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1540,13 +1540,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1554,13 +1554,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1568,10 +1568,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>63</v>
@@ -1582,7 +1582,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
@@ -1594,7 +1594,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>45</v>
@@ -1613,10 +1613,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1632,13 +1632,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>51</v>
@@ -1657,7 +1657,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1665,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1714,10 +1714,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91B18C3-1A94-A94C-A352-9319704EDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3241D6D1-80C8-F44A-A35F-3BF89B8E111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="30500" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
   <si>
     <t>date</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>[Lab report 3](https://docs.google.com/document/d/1F6b2qSFbESrm1Hhu7xn3AIkZWvM4GQecbj_fWf65vFY/edit?tab=t.0) due in class</t>
+  </si>
+  <si>
+    <t>[Poster practice](https://mrne392.github.io/lesson-plans/29-poster-practice.html)</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1720,12 +1723,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3241D6D1-80C8-F44A-A35F-3BF89B8E111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462FDD5-28C4-0A4C-8166-BA343FBF1286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
+    <workbookView xWindow="29960" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4525DE01-5AFE-3449-9459-0416C5161635}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>Draft [poster](https://mrne392.github.io/assessment/poster.html) due before lab</t>
   </si>
   <si>
-    <t>Bring your printed [poster](https://mrne392.github.io/assessment/poster.html) to lab</t>
-  </si>
-  <si>
     <t>[Poster](https://mrne392.github.io/assessment/poster.html) presentation</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>[Scientific writing](https://mrne392.github.io/lesson-plans/11-scientific-writing.html)</t>
   </si>
   <si>
-    <t>Attendance is mandatory; this will take the place of our scheduled final exam time</t>
-  </si>
-  <si>
     <t>Wear comfortable outdoor clothing and closed-toe shoes. Be prepared to spend all afternoon outside. Guest instructor - Nina Santos.</t>
   </si>
   <si>
@@ -329,9 +323,6 @@
     <t>Wear comfortable outdoor clothing. Be prepared to spend a portion of the  afternoon outside.</t>
   </si>
   <si>
-    <t>Skills and knowledge inventory</t>
-  </si>
-  <si>
     <t>[Chasing Coral](https://mrne392.github.io/lesson-plans/23-univariate-analysis.html)</t>
   </si>
   <si>
@@ -366,6 +357,15 @@
   </si>
   <si>
     <t>[Poster practice](https://mrne392.github.io/lesson-plans/29-poster-practice.html)</t>
+  </si>
+  <si>
+    <t>[Skills and knowledge inventory](https://mrne392.github.io/lesson-plans/30-wrap-up.html)</t>
+  </si>
+  <si>
+    <t>I will bring your printed [posters](https://mrne392.github.io/assessment/poster.html) to lab</t>
+  </si>
+  <si>
+    <t>Attendance is mandatory; this will take the place of our scheduled final exam time. Check [this spreadsheet](https://docs.google.com/spreadsheets/d/1mh9wwvnB_G9_QXD71zr4qcamEk3v0I3HWuSnIxFPPjY/edit?gid=0#gid=0) for your board number and time slot.</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDABB12-4657-E148-B974-850E15FFCCAA}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1295,10 +1295,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1306,13 +1306,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1328,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1342,13 +1342,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1383,13 +1383,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1397,10 +1397,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1416,13 +1416,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1441,7 +1441,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1461,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1477,13 +1477,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
@@ -1526,7 +1526,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1543,13 +1543,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1557,13 +1557,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1571,13 +1571,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
@@ -1597,7 +1597,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1605,7 +1605,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>45</v>
@@ -1616,10 +1616,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1635,13 +1635,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>51</v>
@@ -1660,7 +1660,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1693,7 +1693,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1717,10 +1717,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1728,15 +1728,15 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1744,16 +1744,16 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1761,10 +1761,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
